--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1539217.073724061</v>
+        <v>-1542023.019779252</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>285.7771890195119</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59.19419212247341</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.5224906587258</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.675913495203</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.6509107473003</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.246145173891</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>164.1001522396375</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +744,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>147.8423864939705</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.6780005204371</v>
       </c>
       <c r="H3" t="n">
-        <v>42.61032324040416</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.83742364780756</v>
+        <v>58.83742364780749</v>
       </c>
       <c r="S3" t="n">
         <v>159.3214913575833</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4822295952212</v>
       </c>
       <c r="U3" t="n">
         <v>225.8975980913187</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.57479721756759</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2665182564294</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.44160735593302</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2885958948282</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.36347282663038</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>26.06728580972282</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>68.32257602248012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>122.3508835514369</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>119.9750303801817</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.24335538749718</v>
+        <v>129.2269245181086</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>273.9949634955915</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>328.6274050762972</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>159.5853703645823</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>226.2251695843655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>71.39698738222857</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>41.01175877060142</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4811715458542</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>67.9789698179066</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2369,7 +2369,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576166</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>216.5944428361189</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>190.5970158126817</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>1.839588425940237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002285</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>876.6359064926573</v>
+        <v>211.7563218197867</v>
       </c>
       <c r="C2" t="n">
-        <v>876.6359064926573</v>
+        <v>211.7563218197867</v>
       </c>
       <c r="D2" t="n">
-        <v>518.3702078859069</v>
+        <v>211.7563218197867</v>
       </c>
       <c r="E2" t="n">
-        <v>458.5780946308832</v>
+        <v>211.7563218197867</v>
       </c>
       <c r="F2" t="n">
-        <v>47.5921898412757</v>
+        <v>211.7563218197867</v>
       </c>
       <c r="G2" t="n">
-        <v>47.5921898412757</v>
+        <v>211.7563218197867</v>
       </c>
       <c r="H2" t="n">
-        <v>47.5921898412757</v>
+        <v>211.7563218197867</v>
       </c>
       <c r="I2" t="n">
-        <v>47.5921898412757</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="J2" t="n">
-        <v>140.2766257379394</v>
+        <v>140.2766257379399</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9313734332727</v>
+        <v>399.9313734332734</v>
       </c>
       <c r="L2" t="n">
-        <v>774.3326757349378</v>
+        <v>774.3326757349389</v>
       </c>
       <c r="M2" t="n">
-        <v>1207.532809426323</v>
+        <v>1207.532809426325</v>
       </c>
       <c r="N2" t="n">
-        <v>1633.110576631819</v>
+        <v>1633.11057663182</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.783956408641</v>
+        <v>1989.783956408643</v>
       </c>
       <c r="P2" t="n">
-        <v>2256.522051210341</v>
+        <v>2256.522051210343</v>
       </c>
       <c r="Q2" t="n">
-        <v>2379.609492063785</v>
+        <v>2379.609492063787</v>
       </c>
       <c r="R2" t="n">
-        <v>2379.609492063785</v>
+        <v>2379.609492063787</v>
       </c>
       <c r="S2" t="n">
-        <v>2379.609492063785</v>
+        <v>2197.10856934136</v>
       </c>
       <c r="T2" t="n">
-        <v>2379.609492063785</v>
+        <v>1977.259164546107</v>
       </c>
       <c r="U2" t="n">
-        <v>2379.609492063785</v>
+        <v>1723.475179521975</v>
       </c>
       <c r="V2" t="n">
-        <v>2379.609492063785</v>
+        <v>1392.412292178404</v>
       </c>
       <c r="W2" t="n">
-        <v>2026.840836793671</v>
+        <v>1039.64363690829</v>
       </c>
       <c r="X2" t="n">
-        <v>1653.375078532591</v>
+        <v>666.1778786472103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.235746556779</v>
+        <v>500.4201491122229</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>857.8509586923672</v>
+        <v>658.3739591012375</v>
       </c>
       <c r="C3" t="n">
-        <v>683.3979294112402</v>
+        <v>483.9209298201105</v>
       </c>
       <c r="D3" t="n">
-        <v>534.4635197499889</v>
+        <v>334.9865201588592</v>
       </c>
       <c r="E3" t="n">
-        <v>375.2260647445334</v>
+        <v>185.6507762255556</v>
       </c>
       <c r="F3" t="n">
-        <v>228.6915067714184</v>
+        <v>185.6507762255556</v>
       </c>
       <c r="G3" t="n">
-        <v>90.63292038713848</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="H3" t="n">
-        <v>47.5921898412757</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="I3" t="n">
-        <v>47.5921898412757</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="J3" t="n">
-        <v>109.1010252263742</v>
+        <v>109.1010252263744</v>
       </c>
       <c r="K3" t="n">
-        <v>340.8502649974756</v>
+        <v>340.850264997476</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9860664824255</v>
+        <v>713.8701137890711</v>
       </c>
       <c r="M3" t="n">
-        <v>996.2618574529091</v>
+        <v>1201.145904759555</v>
       </c>
       <c r="N3" t="n">
-        <v>1512.14140206347</v>
+        <v>1717.025449370116</v>
       </c>
       <c r="O3" t="n">
-        <v>1917.654721881344</v>
+        <v>2122.538769187991</v>
       </c>
       <c r="P3" t="n">
-        <v>2226.111844043574</v>
+        <v>2379.609492063787</v>
       </c>
       <c r="Q3" t="n">
-        <v>2379.609492063785</v>
+        <v>2379.609492063787</v>
       </c>
       <c r="R3" t="n">
-        <v>2320.177751005393</v>
+        <v>2320.177751005396</v>
       </c>
       <c r="S3" t="n">
-        <v>2159.246951654299</v>
+        <v>2159.246951654302</v>
       </c>
       <c r="T3" t="n">
-        <v>2159.246951654299</v>
+        <v>1959.76995206317</v>
       </c>
       <c r="U3" t="n">
-        <v>1931.067559642866</v>
+        <v>1731.590560051736</v>
       </c>
       <c r="V3" t="n">
-        <v>1695.915451411124</v>
+        <v>1496.438451819994</v>
       </c>
       <c r="W3" t="n">
-        <v>1441.678094682922</v>
+        <v>1242.201095091792</v>
       </c>
       <c r="X3" t="n">
-        <v>1233.826594477389</v>
+        <v>1034.349594886259</v>
       </c>
       <c r="Y3" t="n">
-        <v>1026.066295712435</v>
+        <v>826.5892961213056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.1862671873614</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="C4" t="n">
-        <v>229.2500842594545</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="D4" t="n">
-        <v>206.447258787164</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="E4" t="n">
-        <v>206.447258787164</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="F4" t="n">
-        <v>206.447258787164</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="G4" t="n">
-        <v>206.447258787164</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="H4" t="n">
-        <v>47.5921898412757</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="I4" t="n">
-        <v>47.5921898412757</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="J4" t="n">
-        <v>47.5921898412757</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="K4" t="n">
-        <v>89.72043354165861</v>
+        <v>89.72043354165875</v>
       </c>
       <c r="L4" t="n">
-        <v>199.1565158344534</v>
+        <v>199.1565158344537</v>
       </c>
       <c r="M4" t="n">
-        <v>324.9306436357416</v>
+        <v>324.930643635742</v>
       </c>
       <c r="N4" t="n">
-        <v>453.1487602187665</v>
+        <v>453.148760218767</v>
       </c>
       <c r="O4" t="n">
-        <v>555.5626480722333</v>
+        <v>555.5626480722339</v>
       </c>
       <c r="P4" t="n">
-        <v>619.6747394478365</v>
+        <v>619.6747394478372</v>
       </c>
       <c r="Q4" t="n">
-        <v>579.8347320176011</v>
+        <v>619.6747394478372</v>
       </c>
       <c r="R4" t="n">
-        <v>579.8347320176011</v>
+        <v>619.6747394478372</v>
       </c>
       <c r="S4" t="n">
-        <v>579.8347320176011</v>
+        <v>619.6747394478372</v>
       </c>
       <c r="T4" t="n">
-        <v>579.8347320176011</v>
+        <v>619.6747394478372</v>
       </c>
       <c r="U4" t="n">
-        <v>579.8347320176011</v>
+        <v>330.4943395540712</v>
       </c>
       <c r="V4" t="n">
-        <v>579.8347320176011</v>
+        <v>330.4943395540712</v>
       </c>
       <c r="W4" t="n">
-        <v>579.8347320176011</v>
+        <v>275.5817407392931</v>
       </c>
       <c r="X4" t="n">
-        <v>579.8347320176011</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.8347320176011</v>
+        <v>47.59218984127575</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.557135513264</v>
+        <v>824.79847231453</v>
       </c>
       <c r="C5" t="n">
-        <v>1537.557135513264</v>
+        <v>455.8359553741183</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.291436906514</v>
+        <v>97.57025676736782</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5031843082696</v>
+        <v>71.23966504037507</v>
       </c>
       <c r="F5" t="n">
-        <v>382.5172795186621</v>
+        <v>64.2941642911716</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4699017954936</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>72.4810365613864</v>
@@ -4571,19 +4571,19 @@
         <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>1028.761407827631</v>
+        <v>777.2345380156102</v>
       </c>
       <c r="M5" t="n">
-        <v>1215.460820653039</v>
+        <v>1408.952348998922</v>
       </c>
       <c r="N5" t="n">
-        <v>1409.795033545021</v>
+        <v>2036.260017058768</v>
       </c>
       <c r="O5" t="n">
-        <v>1956.956238312099</v>
+        <v>2206.429042375728</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164694</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>1937.632725909845</v>
+        <v>1937.632725909846</v>
       </c>
       <c r="V5" t="n">
-        <v>1606.569838566274</v>
+        <v>1937.632725909846</v>
       </c>
       <c r="W5" t="n">
-        <v>1537.557135513264</v>
+        <v>1584.864070639732</v>
       </c>
       <c r="X5" t="n">
-        <v>1537.557135513264</v>
+        <v>1211.398312378652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1537.557135513264</v>
+        <v>1211.398312378652</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>595.3761750425472</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>436.1387200370916</v>
       </c>
       <c r="F6" t="n">
         <v>289.6041620639766</v>
@@ -4638,31 +4638,31 @@
         <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>237.5138580882558</v>
+        <v>499.3344427307086</v>
       </c>
       <c r="L6" t="n">
-        <v>405.1422685015887</v>
+        <v>636.5640407464026</v>
       </c>
       <c r="M6" t="n">
-        <v>1039.321252280627</v>
+        <v>1270.743024525441</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.500236059665</v>
+        <v>1673.500236059666</v>
       </c>
       <c r="O6" t="n">
-        <v>2222.936244812388</v>
+        <v>2222.936244812389</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4674,10 +4674,10 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
@@ -4686,10 +4686,10 @@
         <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.8536315726197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4750,25 +4750,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>843.7411832797532</v>
       </c>
       <c r="T7" t="n">
-        <v>825.5522713397128</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="U7" t="n">
-        <v>536.4000949173926</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="V7" t="n">
-        <v>281.7156067115058</v>
+        <v>363.4274983862313</v>
       </c>
       <c r="W7" t="n">
-        <v>281.7156067115058</v>
+        <v>363.4274983862313</v>
       </c>
       <c r="X7" t="n">
-        <v>281.7156067115058</v>
+        <v>363.4274983862313</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8536315726197</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1121.092420148945</v>
+        <v>394.8580066177519</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>394.8580066177519</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>394.8580066177519</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>394.8580066177519</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4829,7 +4829,7 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
         <v>2228.89447953245</v>
@@ -4841,13 +4841,13 @@
         <v>1897.831592188879</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X8" t="n">
-        <v>1897.831592188879</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y8" t="n">
-        <v>1507.692260213067</v>
+        <v>781.4578466818737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1852.283970943244</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2184.354406119406</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2431.537139951703</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.2629842544534</v>
+        <v>318.2992770412181</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>988.3286191216537</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W10" t="n">
-        <v>698.9114490846931</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X10" t="n">
-        <v>698.9114490846931</v>
+        <v>539.0918561847483</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.9114490846931</v>
+        <v>318.2992770412181</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5048,31 +5048,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,19 +5364,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138415</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859347</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2418223735989</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3287287912058</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4387812932954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>135.2426820081753</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>835.5837926935562</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>685.4671532812205</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>537.5540596988274</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2311.25175375397</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6017,10 +6017,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2161.135114341634</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1872.059887685832</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.176099401437</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6309,16 +6309,16 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6716,7 +6716,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6731,7 +6731,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
         <v>2092.798483612593</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684978</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7202,10 +7202,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.07903472198</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,31 +7330,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,19 +7597,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
@@ -7655,34 +7655,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>710.248605371872</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>163.886762165434</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>266.557314815257</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.02915842250526</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>163.5936692857829</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>251.992731377403</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>30.70587110872617</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378116</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933067</v>
+        <v>206.1620907894547</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>168.7434581780648</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.64270034434946</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>-2.95569748243736e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-4.508049962793278e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>-2.95569748243736e-13</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>96.95665264396864</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>322.7361779497884</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>414.0588908408162</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.5224906587259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>71.73533428546396</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.246145173891</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22677,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4822295952212</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>126.0406758006448</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.6714930639233</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.91234155828214</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.2931070357591</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5616349313748</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2885958948282</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>7.969790003637822</v>
+        <v>232.1595255099606</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>215.1260109543624</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.28295407562243</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>11.93987647707706</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260413</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>149.4264805093817</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.811007491169363</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>35.11263957635543</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1277965.278126896</v>
+        <v>1277965.278126895</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1277965.278126896</v>
+        <v>1277965.278126895</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1277965.278126896</v>
+        <v>1277965.278126895</v>
       </c>
     </row>
     <row r="12">
@@ -26317,10 +26317,10 @@
         <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26329,13 +26329,13 @@
         <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
         <v>141250.6549457511</v>
@@ -26344,7 +26344,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262497</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497513.9407656157</v>
+        <v>497513.9407656164</v>
       </c>
       <c r="C3" t="n">
-        <v>273432.6815691293</v>
+        <v>273432.6815691287</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155652.6364853842</v>
+        <v>155652.6364853843</v>
       </c>
       <c r="K3" t="n">
-        <v>11757.20312955473</v>
+        <v>11757.20312955459</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178690.4677814938</v>
+        <v>178690.4677814937</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26427,37 +26427,37 @@
         <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719636</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719652</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719641</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719636</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719635</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719636</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719643</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719655</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719642</v>
-      </c>
       <c r="L4" t="n">
+        <v>15498.2277248131</v>
+      </c>
+      <c r="M4" t="n">
         <v>15498.22772481311</v>
       </c>
-      <c r="M4" t="n">
-        <v>15498.22772481309</v>
-      </c>
       <c r="N4" t="n">
-        <v>15498.22772481311</v>
+        <v>15498.22772481307</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481318</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481312</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76542.73383253242</v>
+        <v>76542.73383253248</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-634270.6437536167</v>
+        <v>-634630.7267693348</v>
       </c>
       <c r="C6" t="n">
-        <v>-413575.9432820842</v>
+        <v>-413575.9432820836</v>
       </c>
       <c r="D6" t="n">
-        <v>-374054.335783366</v>
+        <v>-374054.3357833659</v>
       </c>
       <c r="E6" t="n">
-        <v>-474864.6849644219</v>
+        <v>-474899.4228898576</v>
       </c>
       <c r="F6" t="n">
-        <v>32620.75666012439</v>
+        <v>32586.0187346887</v>
       </c>
       <c r="G6" t="n">
-        <v>32620.75666012439</v>
+        <v>32586.01873468861</v>
       </c>
       <c r="H6" t="n">
-        <v>32620.75666012427</v>
+        <v>32586.0187346887</v>
       </c>
       <c r="I6" t="n">
-        <v>32620.75666012429</v>
+        <v>32586.01873468865</v>
       </c>
       <c r="J6" t="n">
-        <v>-123031.8798252598</v>
+        <v>-123066.6177506956</v>
       </c>
       <c r="K6" t="n">
-        <v>20863.55353056957</v>
+        <v>20828.81560513409</v>
       </c>
       <c r="L6" t="n">
-        <v>5592.248153889348</v>
+        <v>5592.248153889406</v>
       </c>
       <c r="M6" t="n">
-        <v>-107587.3275814056</v>
+        <v>-107587.3275814055</v>
       </c>
       <c r="N6" t="n">
+        <v>25019.96614752118</v>
+      </c>
+      <c r="O6" t="n">
         <v>25019.96614752115</v>
       </c>
-      <c r="O6" t="n">
-        <v>25019.96614752123</v>
-      </c>
       <c r="P6" t="n">
-        <v>25019.96614752115</v>
+        <v>25019.96614752112</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368303</v>
+        <v>309.4068602368308</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159462</v>
+        <v>594.9023730159469</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368303</v>
+        <v>309.4068602368308</v>
       </c>
       <c r="C3" t="n">
-        <v>284.0692401012348</v>
+        <v>284.0692401012343</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159462</v>
+        <v>594.9023730159469</v>
       </c>
       <c r="C4" t="n">
-        <v>45.68245908409256</v>
+        <v>45.68245908409202</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159462</v>
+        <v>594.9023730159465</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409256</v>
+        <v>45.68245908409202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159462</v>
+        <v>594.9023730159469</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409256</v>
+        <v>45.68245908409202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.73533428546409</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.675913495203</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6509107473003</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>222.1377864164161</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9.802693961430407</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>63.19763131456872</v>
+        <v>105.8079545549729</v>
       </c>
       <c r="I3" t="n">
-        <v>66.48301159802718</v>
+        <v>66.48301159802713</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2665182564294</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.6714930639233</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.91234155828208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.44160735593294</v>
       </c>
       <c r="R4" t="n">
         <v>152.206074479934</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.2931070357591</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5616349313748</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>278.5532083329532</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>355.863084262539</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>280.9183926949329</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,13 +27698,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25.09418201320184</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.09418201320221</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27822,13 +27822,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.3412979645976</v>
+        <v>89.35772883398622</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>91.27792827541606</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>78.2486406654142</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>7.661450734045559</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>25.91247373946251</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.243846674318915</v>
+        <v>1.243846674318917</v>
       </c>
       <c r="H2" t="n">
-        <v>12.73854475336859</v>
+        <v>12.73854475336861</v>
       </c>
       <c r="I2" t="n">
-        <v>47.95339891168</v>
+        <v>47.95339891168008</v>
       </c>
       <c r="J2" t="n">
-        <v>105.5699316744751</v>
+        <v>105.5699316744753</v>
       </c>
       <c r="K2" t="n">
-        <v>158.2219613983948</v>
+        <v>158.221961398395</v>
       </c>
       <c r="L2" t="n">
-        <v>196.2883340575823</v>
+        <v>196.2883340575826</v>
       </c>
       <c r="M2" t="n">
-        <v>218.4085923520013</v>
+        <v>218.4085923520016</v>
       </c>
       <c r="N2" t="n">
-        <v>221.9426717154099</v>
+        <v>221.9426717154103</v>
       </c>
       <c r="O2" t="n">
-        <v>209.5741713476512</v>
+        <v>209.5741713476515</v>
       </c>
       <c r="P2" t="n">
-        <v>178.866706575403</v>
+        <v>178.8667065754033</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.3214475513568</v>
+        <v>134.321447551357</v>
       </c>
       <c r="R2" t="n">
-        <v>78.13378365568559</v>
+        <v>78.13378365568572</v>
       </c>
       <c r="S2" t="n">
-        <v>28.3441560910423</v>
+        <v>28.34415609104234</v>
       </c>
       <c r="T2" t="n">
-        <v>5.444938816831051</v>
+        <v>5.444938816831061</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09950773394551315</v>
+        <v>0.09950773394551332</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6655166427735595</v>
+        <v>0.6655166427735606</v>
       </c>
       <c r="H3" t="n">
-        <v>6.427489681523588</v>
+        <v>6.427489681523599</v>
       </c>
       <c r="I3" t="n">
-        <v>22.91362125338791</v>
+        <v>22.91362125338794</v>
       </c>
       <c r="J3" t="n">
-        <v>62.87672807888266</v>
+        <v>62.87672807888276</v>
       </c>
       <c r="K3" t="n">
-        <v>107.4663431447111</v>
+        <v>107.4663431447113</v>
       </c>
       <c r="L3" t="n">
-        <v>144.501760528531</v>
+        <v>144.5017605285312</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6267388290725</v>
+        <v>168.6267388290727</v>
       </c>
       <c r="N3" t="n">
-        <v>173.0897868413566</v>
+        <v>173.0897868413569</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3433391251635</v>
+        <v>158.3433391251638</v>
       </c>
       <c r="P3" t="n">
-        <v>127.0844894433124</v>
+        <v>127.0844894433126</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.95261566351613</v>
+        <v>84.95261566351626</v>
       </c>
       <c r="R3" t="n">
-        <v>41.32041050483557</v>
+        <v>41.32041050483564</v>
       </c>
       <c r="S3" t="n">
-        <v>12.36167974625448</v>
+        <v>12.3616797462545</v>
       </c>
       <c r="T3" t="n">
-        <v>2.682499099600443</v>
+        <v>2.682499099600447</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04378398965615524</v>
+        <v>0.04378398965615531</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5579467971483824</v>
+        <v>0.5579467971483832</v>
       </c>
       <c r="H4" t="n">
-        <v>4.960654251010167</v>
+        <v>4.960654251010175</v>
       </c>
       <c r="I4" t="n">
-        <v>16.77898186333499</v>
+        <v>16.77898186333502</v>
       </c>
       <c r="J4" t="n">
-        <v>39.44683855839063</v>
+        <v>39.4468385583907</v>
       </c>
       <c r="K4" t="n">
-        <v>64.82327334142114</v>
+        <v>64.82327334142124</v>
       </c>
       <c r="L4" t="n">
-        <v>82.95147200513316</v>
+        <v>82.95147200513328</v>
       </c>
       <c r="M4" t="n">
-        <v>87.46069657481415</v>
+        <v>87.46069657481429</v>
       </c>
       <c r="N4" t="n">
-        <v>85.38107669453387</v>
+        <v>85.38107669453402</v>
       </c>
       <c r="O4" t="n">
-        <v>78.86324365511865</v>
+        <v>78.86324365511879</v>
       </c>
       <c r="P4" t="n">
-        <v>67.48112899329161</v>
+        <v>67.4811289932917</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.72043589576137</v>
+        <v>46.72043589576145</v>
       </c>
       <c r="R4" t="n">
-        <v>25.08731689723544</v>
+        <v>25.08731689723548</v>
       </c>
       <c r="S4" t="n">
-        <v>9.723491001213169</v>
+        <v>9.723491001213185</v>
       </c>
       <c r="T4" t="n">
-        <v>2.383954496906724</v>
+        <v>2.383954496906728</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03043346166263907</v>
+        <v>0.03043346166263912</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>213.3000196296242</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32312,7 +32312,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32324,7 +32324,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>555.0107214892107</v>
+        <v>602.4605829984174</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,28 +32546,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>624.2063432190395</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32786,22 +32786,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>223.6976288294625</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33029,19 +33029,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33257,22 +33257,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>229.6463482471735</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>714.9328157424943</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>150.2061940096322</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
@@ -33731,16 +33731,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>614.59004755871</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33968,31 +33968,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34442,22 +34442,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>422.1299181110988</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.62064231986257</v>
+        <v>93.62064231986274</v>
       </c>
       <c r="K2" t="n">
-        <v>262.277522924579</v>
+        <v>262.2775229245792</v>
       </c>
       <c r="L2" t="n">
-        <v>378.1831336380455</v>
+        <v>378.1831336380458</v>
       </c>
       <c r="M2" t="n">
-        <v>437.5758926175611</v>
+        <v>437.5758926175614</v>
       </c>
       <c r="N2" t="n">
-        <v>429.8765325308032</v>
+        <v>429.8765325308035</v>
       </c>
       <c r="O2" t="n">
-        <v>360.2761411887099</v>
+        <v>360.2761411887102</v>
       </c>
       <c r="P2" t="n">
-        <v>269.432418991616</v>
+        <v>269.4324189916164</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.330748336812</v>
+        <v>124.3307483368122</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.1301367526248</v>
+        <v>62.13013675262491</v>
       </c>
       <c r="K3" t="n">
-        <v>234.0901411829307</v>
+        <v>234.0901411829309</v>
       </c>
       <c r="L3" t="n">
-        <v>169.8341429140908</v>
+        <v>376.7877260521162</v>
       </c>
       <c r="M3" t="n">
-        <v>492.1977686570541</v>
+        <v>492.1977686570543</v>
       </c>
       <c r="N3" t="n">
-        <v>521.0904491015768</v>
+        <v>521.0904491015771</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6094139574486</v>
+        <v>409.6094139574489</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5728506689193</v>
+        <v>259.6673968442394</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.0481293133437</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.55378151553829</v>
+        <v>42.55378151553839</v>
       </c>
       <c r="L4" t="n">
-        <v>110.5414972654493</v>
+        <v>110.5414972654494</v>
       </c>
       <c r="M4" t="n">
-        <v>127.0445735366547</v>
+        <v>127.0445735366549</v>
       </c>
       <c r="N4" t="n">
-        <v>129.5132490737625</v>
+        <v>129.5132490737626</v>
       </c>
       <c r="O4" t="n">
-        <v>103.4483715691583</v>
+        <v>103.4483715691585</v>
       </c>
       <c r="P4" t="n">
-        <v>64.75968825818509</v>
+        <v>64.75968825818519</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>304.3296852870487</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>363.8455851648035</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35015,16 +35015,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>169.3216266801342</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>406.8254661961867</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q9" t="n">
-        <v>132.123422675204</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>79.325612215294</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789214</v>
@@ -35732,22 +35732,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35960,7 +35960,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.6690094058774</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>485.6519634391653</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36434,22 +36434,22 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>81.10138438501811</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>132.4173135558158</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>91.80490927281451</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>18.86448192629892</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>471.9938031142656</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>159.0482712280113</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37789,7 +37789,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>283.5755383312247</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
